--- a/Project Outputs for USB-UART-ISO-CP2102/Verification Report/ReportComponents/Component Cross Reference Report-USB-UART-ISO-CP2102.xlsx
+++ b/Project Outputs for USB-UART-ISO-CP2102/Verification Report/ReportComponents/Component Cross Reference Report-USB-UART-ISO-CP2102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AE4753D-A7EC-4C83-898D-16122D19C16D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB90C9C9-00E8-40DD-961D-F413B743B361}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{8CFA9E2A-8AF1-4940-8C2A-3B2E9E16D9B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{561F50E3-74A4-4274-8A91-F87E0D480140}"/>
   </bookViews>
   <sheets>
     <sheet name="Component Cross Reference Repor" sheetId="1" r:id="rId1"/>
@@ -93,19 +93,19 @@
     <t>100nF_10V, 100nF_6.3V, 4.7uF_10V, SRV05-4, 10K, CP2102N-QFN-28</t>
   </si>
   <si>
-    <t>C0603C105K9PACTU, C0603C105K8PACTU, ADUM141D0BRWZ</t>
-  </si>
-  <si>
-    <t>Ceramic Capacitor, Multilayer, Ceramic, 6.3V, 10% +Tol, 10% -Tol, X7R, 15% TC, 1uF, Surface Mount, 0603, Ceramic Capacitor, Multilayer, Ceramic, 10V, 10% +Tol, 10% -Tol, X5R, 15% TC, 1uF, 0603, DGTL ISO 3750VRMS 4CH GP 16SOIC</t>
-  </si>
-  <si>
-    <t>C1I, C2I, U1I</t>
+    <t>KGM15AR70J104KM, 06036A102KAT2A, CC0603KRX7R6BB102, C0603C104K8RACTU, C0603C105K8PACTU, ADUM141D0BRWZ</t>
+  </si>
+  <si>
+    <t>Cap Cer 0.1UF 6.3V X7R 0603, Cap Ceramic 0.001uF 6.3V C0G 10% SMD 0603 125°C Paper T/R, Cap Ceramic 0.001uF 10V X7R 10% SMD 0603 125°C Paper T/R, Multilayer Ceramic Capacitor, 0.1 uF, 10 V, ± 10%, X7R, 0603 [1608 Metric], Ceramic Capacitor, Multilayer, Ceramic, 10V, 10% +Tol, 10% -Tol, X5R, 15% TC, 1uF, 0603, DGTL ISO 3750VRMS 4CH GP 16SOIC</t>
+  </si>
+  <si>
+    <t>C1I, C2I, C3I, C4I, C5I, U1I</t>
   </si>
   <si>
     <t>C0603-IPC_C_No_Silk, SOIC-W-16-IPC_A</t>
   </si>
   <si>
-    <t>1uF_6.3V, 1uF_10V, ADUM141D0BRWZ</t>
+    <t>100nF_6.3V, 1nF_6.3V, 1nF_10V, 100nF_10V, 1uF_10V, ADUM141D0BRWZ</t>
   </si>
   <si>
     <t>KGM15AR70J104KM, C0603C105K8PACTU, SS8050-G, RC0603FR-0710KL</t>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596DF507-5D69-4501-A8CB-742A5D871D7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1493F7-0BB1-4914-A315-C3E50D8637A4}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -622,7 +622,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">

--- a/Project Outputs for USB-UART-ISO-CP2102/Verification Report/ReportComponents/Component Cross Reference Report-USB-UART-ISO-CP2102.xlsx
+++ b/Project Outputs for USB-UART-ISO-CP2102/Verification Report/ReportComponents/Component Cross Reference Report-USB-UART-ISO-CP2102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB90C9C9-00E8-40DD-961D-F413B743B361}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E2D96F-C3A8-48FD-8E7F-B5B352E71806}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{561F50E3-74A4-4274-8A91-F87E0D480140}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{BA9DDB8B-F2ED-4857-A432-2BA8F2A52ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Component Cross Reference Repor" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1493F7-0BB1-4914-A315-C3E50D8637A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E9A751-9BE7-4CD1-90EF-96A0556ABBA9}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for USB-UART-ISO-CP2102/Verification Report/ReportComponents/Component Cross Reference Report-USB-UART-ISO-CP2102.xlsx
+++ b/Project Outputs for USB-UART-ISO-CP2102/Verification Report/ReportComponents/Component Cross Reference Report-USB-UART-ISO-CP2102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E2D96F-C3A8-48FD-8E7F-B5B352E71806}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23B1DFB6-E980-4093-B89C-3654FA1B393B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{BA9DDB8B-F2ED-4857-A432-2BA8F2A52ABD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="13290" xr2:uid="{61684F84-2938-4304-ACB4-E3C84E46C537}"/>
   </bookViews>
   <sheets>
     <sheet name="Component Cross Reference Repor" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E9A751-9BE7-4CD1-90EF-96A0556ABBA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8992DE80-0591-487A-8E06-8855AAA5AB08}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
